--- a/output/2021/sector_totals_2021.xlsx
+++ b/output/2021/sector_totals_2021.xlsx
@@ -509,7 +509,7 @@
         <v>431.7541254269601</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>87.36921944896264</v>
       </c>
       <c r="G3" t="n">
         <v>4.507546593314935</v>
@@ -834,7 +834,7 @@
         <v>7089.368253499344</v>
       </c>
       <c r="F16" t="n">
-        <v>1489.046686214879</v>
+        <v>1576.415905663841</v>
       </c>
       <c r="G16" t="n">
         <v>36.44984764379367</v>

--- a/output/2021/sector_totals_2021.xlsx
+++ b/output/2021/sector_totals_2021.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>94.41249001862033</v>
       </c>
       <c r="C9" t="n">
         <v>94.41249001862033</v>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46.94126537280198</v>
       </c>
       <c r="C10" t="n">
         <v>46.94126537280198</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.2200721866216</v>
       </c>
       <c r="C11" t="n">
         <v>329.2200721866216</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5882.87610995559</v>
+        <v>6353.449937533635</v>
       </c>
       <c r="C16" t="n">
         <v>542.9364197255203</v>
